--- a/接口文档/店铺api/店铺接口_移动端.xlsx
+++ b/接口文档/店铺api/店铺接口_移动端.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="87">
   <si>
     <t>序号</t>
   </si>
@@ -109,36 +109,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>200</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>msg</t>
-  </si>
-  <si>
-    <t>成功</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>data</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Object</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>licence</t>
   </si>
   <si>
@@ -367,10 +337,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>http://192.168.1.117/api/store/v1/gotoStore</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -388,6 +354,10 @@
       </rPr>
       <t>D</t>
     </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.1.117/api/store/nologin/gotoStore</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -443,7 +413,7 @@
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -1238,7 +1208,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1275,7 +1245,7 @@
   <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:E6"/>
+      <selection activeCell="B7" sqref="B7:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1304,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C2" s="28"/>
       <c r="D2" s="28"/>
@@ -1341,7 +1311,7 @@
     <row r="5" spans="1:5">
       <c r="A5" s="22"/>
       <c r="B5" s="2" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>12</v>
@@ -1350,7 +1320,7 @@
         <v>13</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.100000000000001" customHeight="1">
@@ -1366,48 +1336,22 @@
     </row>
     <row r="7" spans="1:5" ht="18.95" customHeight="1">
       <c r="A7" s="22"/>
-      <c r="B7" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>21</v>
-      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="2"/>
+      <c r="E7" s="7"/>
     </row>
     <row r="8" spans="1:5" ht="15.95" customHeight="1">
       <c r="A8" s="22"/>
-      <c r="B8" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>23</v>
-      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="2"/>
+      <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:5" ht="15.95" customHeight="1">
       <c r="A9" s="22"/>
-      <c r="B9" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>27</v>
-      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1">
       <c r="A10" s="22"/>
@@ -1436,7 +1380,7 @@
     <row r="12" spans="1:5" ht="16.5" customHeight="1">
       <c r="A12" s="22"/>
       <c r="B12" s="7" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>12</v>
@@ -1445,13 +1389,13 @@
         <v>13</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="16.5" customHeight="1">
       <c r="A13" s="22"/>
       <c r="B13" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>12</v>
@@ -1460,13 +1404,13 @@
         <v>13</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="16.5" customHeight="1">
       <c r="A14" s="22"/>
       <c r="B14" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>12</v>
@@ -1475,13 +1419,13 @@
         <v>13</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="22"/>
       <c r="B15" s="8" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>12</v>
@@ -1490,13 +1434,13 @@
         <v>13</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="23"/>
       <c r="B16" s="8" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>12</v>
@@ -1505,12 +1449,12 @@
         <v>13</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="2:5">
       <c r="B17" s="8" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>12</v>
@@ -1519,12 +1463,12 @@
         <v>13</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="8" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>12</v>
@@ -1533,54 +1477,54 @@
         <v>13</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="2:5">
       <c r="B19" s="8" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="2:5">
       <c r="B20" s="8" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="2:5">
       <c r="B21" s="8" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="2:5">
       <c r="B22" s="8" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>12</v>
@@ -1589,12 +1533,12 @@
         <v>13</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="2:5">
       <c r="B23" s="8" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>12</v>
@@ -1603,12 +1547,12 @@
         <v>13</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="2:5">
       <c r="B24" s="8" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>12</v>
@@ -1617,12 +1561,12 @@
         <v>13</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="2:5">
       <c r="B25" s="8" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>12</v>
@@ -1631,12 +1575,12 @@
         <v>13</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="2:5">
       <c r="B26" s="8" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>12</v>
@@ -1645,12 +1589,12 @@
         <v>13</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="2:5">
       <c r="B27" s="8" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>12</v>
@@ -1659,12 +1603,12 @@
         <v>13</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="2:5">
       <c r="B28" s="8" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>12</v>
@@ -1673,12 +1617,12 @@
         <v>13</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="2:5" ht="25.5" customHeight="1">
       <c r="B29" s="8" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>12</v>
@@ -1687,12 +1631,12 @@
         <v>13</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="2:5">
       <c r="B30" s="8" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>12</v>
@@ -1701,12 +1645,12 @@
         <v>13</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="2:5" ht="17.25" customHeight="1">
       <c r="B31" s="8" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>12</v>
@@ -1715,12 +1659,12 @@
         <v>13</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="2:5" ht="21" customHeight="1">
       <c r="B32" s="8" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>12</v>
@@ -1729,12 +1673,12 @@
         <v>13</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="2:5">
       <c r="B33" s="8" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>12</v>
@@ -1743,12 +1687,12 @@
         <v>13</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="2:5">
       <c r="B34" s="8" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>12</v>
@@ -1757,12 +1701,12 @@
         <v>13</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="2:5">
       <c r="B35" s="8" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>12</v>
@@ -1771,12 +1715,12 @@
         <v>13</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="2:5">
       <c r="B36" s="8" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>12</v>
@@ -1785,12 +1729,12 @@
         <v>13</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="2:5">
       <c r="B37" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>12</v>
@@ -1799,12 +1743,12 @@
         <v>13</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="2:5">
       <c r="B38" s="7" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>12</v>
@@ -1813,12 +1757,12 @@
         <v>13</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="2:5">
       <c r="B39" s="8" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>12</v>
@@ -1827,12 +1771,12 @@
         <v>13</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="2:5">
       <c r="B40" s="8" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>12</v>
@@ -1841,12 +1785,12 @@
         <v>13</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41" spans="2:5">
       <c r="B41" s="8" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>12</v>
@@ -1855,7 +1799,7 @@
         <v>13</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="2:5">
